--- a/api/bpm/800_hayden_accuracy_47_2_5_1.xlsx
+++ b/api/bpm/800_hayden_accuracy_47_2_5_1.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="800_hayden_accuracy_47_2_5_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -840,7 +840,7 @@
   <dimension ref="A1:G2258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
